--- a/Document/Results.xlsx
+++ b/Document/Results.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr showObjects="none"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="5385" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="5385" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="SENTENCE COUNT(ENG)" sheetId="2" r:id="rId1"/>
-    <sheet name="WORD COUNT(ENG)" sheetId="1" r:id="rId2"/>
-    <sheet name="WORD COUNT(FIL)" sheetId="4" r:id="rId3"/>
-    <sheet name="SENTENCE COUNT(FIL)" sheetId="5" r:id="rId4"/>
+    <sheet name="SENTENCE COUNT(FIL)" sheetId="5" r:id="rId1"/>
+    <sheet name="WORD COUNT(FIL)" sheetId="4" r:id="rId2"/>
+    <sheet name="WORD COUNT(ENG)" sheetId="1" r:id="rId3"/>
+    <sheet name="SENTENCE COUNT(ENG)" sheetId="2" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId5"/>
     <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="125">
-  <si>
-    <t>English1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="104">
   <si>
     <t>Original</t>
   </si>
@@ -62,9 +59,6 @@
     <t>English9</t>
   </si>
   <si>
-    <t>English10</t>
-  </si>
-  <si>
     <t>English11</t>
   </si>
   <si>
@@ -107,9 +101,6 @@
     <t>English24</t>
   </si>
   <si>
-    <t>English25</t>
-  </si>
-  <si>
     <t>English26</t>
   </si>
   <si>
@@ -248,9 +239,6 @@
     <t>English69</t>
   </si>
   <si>
-    <t>English70</t>
-  </si>
-  <si>
     <t>CS</t>
   </si>
   <si>
@@ -287,12 +275,6 @@
     <t>Filipino2</t>
   </si>
   <si>
-    <t>Filipino3</t>
-  </si>
-  <si>
-    <t>Filipino4</t>
-  </si>
-  <si>
     <t>Filipino5</t>
   </si>
   <si>
@@ -308,18 +290,12 @@
     <t>Filipino9</t>
   </si>
   <si>
-    <t>Filipino10</t>
-  </si>
-  <si>
     <t>Filipino11</t>
   </si>
   <si>
     <t>Filipino12</t>
   </si>
   <si>
-    <t>Filipino13</t>
-  </si>
-  <si>
     <t>Filipino14</t>
   </si>
   <si>
@@ -329,33 +305,12 @@
     <t>Filipino16</t>
   </si>
   <si>
-    <t>Filipino17</t>
-  </si>
-  <si>
-    <t>Filipino18</t>
-  </si>
-  <si>
-    <t>Filipino19</t>
-  </si>
-  <si>
-    <t>Filipino20</t>
-  </si>
-  <si>
-    <t>Filipino21</t>
-  </si>
-  <si>
     <t>Filipino22</t>
   </si>
   <si>
-    <t>Filipino23</t>
-  </si>
-  <si>
     <t>Filipino24</t>
   </si>
   <si>
-    <t>Filipino25</t>
-  </si>
-  <si>
     <t>Filipino26</t>
   </si>
   <si>
@@ -377,28 +332,10 @@
     <t>Filipino32</t>
   </si>
   <si>
-    <t>Filipino33</t>
-  </si>
-  <si>
     <t>Filipino34</t>
   </si>
   <si>
     <t>Filipino35</t>
-  </si>
-  <si>
-    <t>Filipino36</t>
-  </si>
-  <si>
-    <t>Filipino37</t>
-  </si>
-  <si>
-    <t>Filipino38</t>
-  </si>
-  <si>
-    <t>Filipino39</t>
-  </si>
-  <si>
-    <t>Filipino40</t>
   </si>
 </sst>
 </file>
@@ -502,36 +439,18 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0000"/>
     </dxf>
@@ -581,7 +500,25 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0000"/>
@@ -689,21 +626,21 @@
   <autoFilter ref="A2:I70"/>
   <tableColumns count="9">
     <tableColumn id="1" name="Filename"/>
-    <tableColumn id="2" name="CW" dataDxfId="11"/>
-    <tableColumn id="3" name="CS" dataDxfId="15"/>
-    <tableColumn id="4" name="Retention" dataDxfId="10"/>
-    <tableColumn id="5" name="Cohesion" dataDxfId="14"/>
-    <tableColumn id="6" name="Coherence" dataDxfId="9"/>
-    <tableColumn id="7" name="ARL" dataDxfId="8"/>
-    <tableColumn id="8" name="ARS" dataDxfId="7"/>
-    <tableColumn id="9" name="ARA" dataDxfId="6"/>
+    <tableColumn id="2" name="CW" dataDxfId="15"/>
+    <tableColumn id="3" name="CS" dataDxfId="14"/>
+    <tableColumn id="4" name="Retention" dataDxfId="13"/>
+    <tableColumn id="5" name="Cohesion" dataDxfId="12"/>
+    <tableColumn id="6" name="Coherence" dataDxfId="11"/>
+    <tableColumn id="7" name="ARL" dataDxfId="10"/>
+    <tableColumn id="8" name="ARS" dataDxfId="9"/>
+    <tableColumn id="9" name="ARA" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:G27" totalsRowShown="0" headerRowDxfId="13" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:G27" totalsRowShown="0" headerRowDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="A2:G27"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Filename"/>
@@ -973,7 +910,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -981,1072 +918,473 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75">
-      <c r="A1" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-    </row>
-    <row r="2" spans="1:8">
+    <row r="1" spans="1:4" ht="18.75">
+      <c r="A1" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" spans="1:4">
       <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="B3">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2">
         <f>C3/B3</f>
-        <v>0.35294117647058826</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D67" si="0">C4/B4</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <f t="shared" ref="D4:D25" si="0">C4/B4</f>
+        <v>0.22222222222222221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="B6">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>8</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="0"/>
-        <v>0.38095238095238093</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.34782608695652173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="B7">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="B8">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.45454545454545453</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9">
         <v>11</v>
       </c>
-      <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>0.37931034482758619</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>16</v>
-      </c>
       <c r="C9">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.27272727272727271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="B10">
         <v>7</v>
       </c>
       <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
         <v>3</v>
       </c>
-      <c r="D10" s="2">
-        <f t="shared" si="0"/>
-        <v>0.42857142857142855</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14">
         <v>11</v>
       </c>
-      <c r="B11">
-        <v>26</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="0"/>
-        <v>0.38461538461538464</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>31</v>
-      </c>
-      <c r="C13">
-        <v>12</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" si="0"/>
-        <v>0.38709677419354838</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>23</v>
-      </c>
       <c r="C14">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="0"/>
-        <v>0.52173913043478259</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>0.36363636363636365</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
         <v>3</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
       <c r="D15" s="2">
         <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>53</v>
-      </c>
-      <c r="C16">
-        <v>23</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" si="0"/>
-        <v>0.43396226415094341</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="B17">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C17">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="0"/>
-        <v>0.52</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="B18">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="0"/>
-        <v>0.29411764705882354</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="B19">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C19">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="0"/>
-        <v>0.45714285714285713</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="B20">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C20">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="0"/>
-        <v>0.44827586206896552</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="B21">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C21">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="0"/>
-        <v>0.34883720930232559</v>
+        <v>0.36363636363636365</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="B22">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C22">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="B23">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C23">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" si="0"/>
-        <v>0.37931034482758619</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="B24">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C24">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" si="0"/>
-        <v>0.5757575757575758</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="B25">
         <v>14</v>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="0"/>
-        <v>0.35714285714285715</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26">
-        <v>27</v>
-      </c>
-      <c r="C26">
-        <v>14</v>
-      </c>
-      <c r="D26" s="2">
-        <f t="shared" si="0"/>
-        <v>0.51851851851851849</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28">
-        <v>12</v>
-      </c>
-      <c r="C28">
-        <v>6</v>
-      </c>
-      <c r="D28" s="2">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29">
-        <v>9</v>
-      </c>
-      <c r="C29">
-        <v>4</v>
-      </c>
-      <c r="D29" s="2">
-        <f t="shared" si="0"/>
-        <v>0.44444444444444442</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30">
-        <v>44</v>
-      </c>
-      <c r="C30">
-        <v>16</v>
-      </c>
-      <c r="D30" s="2">
-        <f t="shared" si="0"/>
-        <v>0.36363636363636365</v>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31">
-        <v>28</v>
-      </c>
-      <c r="C31">
-        <v>10</v>
-      </c>
-      <c r="D31" s="2">
-        <f t="shared" si="0"/>
-        <v>0.35714285714285715</v>
-      </c>
+      <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32">
-        <v>14</v>
-      </c>
-      <c r="C32">
-        <v>7</v>
-      </c>
-      <c r="D32" s="2">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33">
-        <v>42</v>
-      </c>
-      <c r="C33">
-        <v>17</v>
-      </c>
-      <c r="D33" s="2">
-        <f t="shared" si="0"/>
-        <v>0.40476190476190477</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34">
-        <v>14</v>
-      </c>
-      <c r="C34">
-        <v>6</v>
-      </c>
-      <c r="D34" s="2">
-        <f t="shared" si="0"/>
-        <v>0.42857142857142855</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35">
-        <v>18</v>
-      </c>
-      <c r="C35">
-        <v>12</v>
-      </c>
-      <c r="D35" s="2">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36">
-        <v>8</v>
-      </c>
-      <c r="C36">
-        <v>3</v>
-      </c>
-      <c r="D36" s="2">
-        <f t="shared" si="0"/>
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37">
-        <v>13</v>
-      </c>
-      <c r="C37">
-        <v>6</v>
-      </c>
-      <c r="D37" s="2">
-        <f t="shared" si="0"/>
-        <v>0.46153846153846156</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38">
-        <v>11</v>
-      </c>
-      <c r="C38">
-        <v>5</v>
-      </c>
-      <c r="D38" s="2">
-        <f t="shared" si="0"/>
-        <v>0.45454545454545453</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39">
-        <v>42</v>
-      </c>
-      <c r="C39">
-        <v>14</v>
-      </c>
-      <c r="D39" s="2">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40">
-        <v>6</v>
-      </c>
-      <c r="C40">
-        <v>4</v>
-      </c>
-      <c r="D40" s="2">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41">
-        <v>39</v>
-      </c>
-      <c r="C41">
-        <v>13</v>
-      </c>
-      <c r="D41" s="2">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42">
-        <v>29</v>
-      </c>
-      <c r="C42">
-        <v>12</v>
-      </c>
-      <c r="D42" s="2">
-        <f t="shared" si="0"/>
-        <v>0.41379310344827586</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43">
-        <v>8</v>
-      </c>
-      <c r="C43">
-        <v>3</v>
-      </c>
-      <c r="D43" s="2">
-        <f t="shared" si="0"/>
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44">
-        <v>17</v>
-      </c>
-      <c r="C44">
-        <v>5</v>
-      </c>
-      <c r="D44" s="2">
-        <f t="shared" si="0"/>
-        <v>0.29411764705882354</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45">
-        <v>40</v>
-      </c>
-      <c r="C45">
-        <v>17</v>
-      </c>
-      <c r="D45" s="2">
-        <f t="shared" si="0"/>
-        <v>0.42499999999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46">
-        <v>15</v>
-      </c>
-      <c r="C46">
-        <v>9</v>
-      </c>
-      <c r="D46" s="2">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47">
-        <v>25</v>
-      </c>
-      <c r="C47">
-        <v>12</v>
-      </c>
-      <c r="D47" s="2">
-        <f t="shared" si="0"/>
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48">
-        <v>14</v>
-      </c>
-      <c r="C48">
-        <v>4</v>
-      </c>
-      <c r="D48" s="2">
-        <f t="shared" si="0"/>
-        <v>0.2857142857142857</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49">
-        <v>12</v>
-      </c>
-      <c r="C49">
-        <v>6</v>
-      </c>
-      <c r="D49" s="2">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50">
-        <v>30</v>
-      </c>
-      <c r="C50">
-        <v>15</v>
-      </c>
-      <c r="D50" s="2">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51">
-        <v>38</v>
-      </c>
-      <c r="C51">
-        <v>19</v>
-      </c>
-      <c r="D51" s="2">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52">
-        <v>124</v>
-      </c>
-      <c r="C52">
-        <v>13</v>
-      </c>
-      <c r="D52" s="2">
-        <f t="shared" si="0"/>
-        <v>0.10483870967741936</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53">
-        <v>16</v>
-      </c>
-      <c r="C53">
-        <v>6</v>
-      </c>
-      <c r="D53" s="2">
-        <f t="shared" si="0"/>
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54">
-        <v>16</v>
-      </c>
-      <c r="C54">
-        <v>7</v>
-      </c>
-      <c r="D54" s="2">
-        <f t="shared" si="0"/>
-        <v>0.4375</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55">
-        <v>52</v>
-      </c>
-      <c r="C55">
-        <v>18</v>
-      </c>
-      <c r="D55" s="2">
-        <f t="shared" si="0"/>
-        <v>0.34615384615384615</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56">
-        <v>26</v>
-      </c>
-      <c r="C56">
-        <v>8</v>
-      </c>
-      <c r="D56" s="2">
-        <f t="shared" si="0"/>
-        <v>0.30769230769230771</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57">
-        <v>19</v>
-      </c>
-      <c r="C57">
-        <v>9</v>
-      </c>
-      <c r="D57" s="2">
-        <f t="shared" si="0"/>
-        <v>0.47368421052631576</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58">
-        <v>28</v>
-      </c>
-      <c r="C58">
-        <v>11</v>
-      </c>
-      <c r="D58" s="2">
-        <f>C58/B58</f>
-        <v>0.39285714285714285</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59">
-        <v>41</v>
-      </c>
-      <c r="C59">
-        <v>14</v>
-      </c>
-      <c r="D59" s="2">
-        <f t="shared" si="0"/>
-        <v>0.34146341463414637</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60">
-        <v>8</v>
-      </c>
-      <c r="C60">
-        <v>4</v>
-      </c>
-      <c r="D60" s="2">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61">
-        <v>13</v>
-      </c>
-      <c r="C61">
-        <v>7</v>
-      </c>
-      <c r="D61" s="2">
-        <f t="shared" si="0"/>
-        <v>0.53846153846153844</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62">
-        <v>47</v>
-      </c>
-      <c r="C62">
-        <v>21</v>
-      </c>
-      <c r="D62" s="2">
-        <f t="shared" si="0"/>
-        <v>0.44680851063829785</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" t="s">
-        <v>63</v>
-      </c>
-      <c r="B63">
-        <v>7</v>
-      </c>
-      <c r="C63">
-        <v>2</v>
-      </c>
-      <c r="D63" s="2">
-        <f t="shared" si="0"/>
-        <v>0.2857142857142857</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" t="s">
-        <v>64</v>
-      </c>
-      <c r="B64">
-        <v>15</v>
-      </c>
-      <c r="C64">
-        <v>6</v>
-      </c>
-      <c r="D64" s="2">
-        <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" t="s">
-        <v>65</v>
-      </c>
-      <c r="B65">
-        <v>23</v>
-      </c>
-      <c r="C65">
-        <v>12</v>
-      </c>
-      <c r="D65" s="2">
-        <f t="shared" si="0"/>
-        <v>0.52173913043478259</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" t="s">
-        <v>66</v>
-      </c>
-      <c r="B66">
-        <v>27</v>
-      </c>
-      <c r="C66">
-        <v>9</v>
-      </c>
-      <c r="D66" s="2">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67">
-        <v>12</v>
-      </c>
-      <c r="C67">
-        <v>8</v>
-      </c>
-      <c r="D67" s="2">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" t="s">
-        <v>68</v>
-      </c>
-      <c r="B68">
-        <v>11</v>
-      </c>
-      <c r="C68">
-        <v>7</v>
-      </c>
-      <c r="D68" s="2">
-        <f t="shared" ref="D68:D72" si="1">C68/B68</f>
-        <v>0.63636363636363635</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" t="s">
-        <v>69</v>
-      </c>
-      <c r="B69">
-        <v>18</v>
-      </c>
-      <c r="C69">
-        <v>8</v>
-      </c>
-      <c r="D69" s="2">
-        <f t="shared" si="1"/>
-        <v>0.44444444444444442</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70">
-        <v>14</v>
-      </c>
-      <c r="C70">
-        <v>5</v>
-      </c>
-      <c r="D70" s="2">
-        <f t="shared" si="1"/>
-        <v>0.35714285714285715</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" t="s">
-        <v>73</v>
-      </c>
-      <c r="B71">
-        <v>54</v>
-      </c>
-      <c r="C71">
-        <v>11</v>
-      </c>
-      <c r="D71" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20370370370370369</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" t="s">
-        <v>74</v>
-      </c>
-      <c r="B72">
-        <v>57</v>
-      </c>
-      <c r="D72" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="4:4">
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="4:4">
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="4:4">
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="4:4">
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="4:4">
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="4:4">
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="4:4">
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="4:4">
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="4:4">
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="4:4">
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="4:4">
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="4:4">
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="4:4">
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="4:4">
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="4:4">
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="4:4">
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="4:4">
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="4:4">
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="4:4">
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="4:4">
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="4:4">
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="4:4">
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" spans="4:4">
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" spans="4:4">
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" spans="4:4">
+      <c r="D60" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2059,1895 +1397,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D72"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
-      <c r="A1" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>331</v>
-      </c>
-      <c r="C3">
-        <v>49</v>
-      </c>
-      <c r="D3" s="2">
-        <f>C3/B3</f>
-        <v>0.14803625377643503</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>400</v>
-      </c>
-      <c r="C4">
-        <v>37</v>
-      </c>
-      <c r="D4" s="2">
-        <f t="shared" ref="D4:D67" si="0">C4/B4</f>
-        <v>9.2499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>206</v>
-      </c>
-      <c r="C5">
-        <v>26</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" si="0"/>
-        <v>0.12621359223300971</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>284</v>
-      </c>
-      <c r="C6">
-        <v>64</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" si="0"/>
-        <v>0.22535211267605634</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>460</v>
-      </c>
-      <c r="C7">
-        <v>111</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="0"/>
-        <v>0.24130434782608695</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>733</v>
-      </c>
-      <c r="C8">
-        <v>81</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>0.11050477489768076</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>373</v>
-      </c>
-      <c r="C9">
-        <v>58</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="0"/>
-        <v>0.15549597855227881</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>117</v>
-      </c>
-      <c r="C10">
-        <v>21</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17948717948717949</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>490</v>
-      </c>
-      <c r="C11">
-        <v>76</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="0"/>
-        <v>0.15510204081632653</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>728</v>
-      </c>
-      <c r="C13">
-        <v>102</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" si="0"/>
-        <v>0.14010989010989011</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>433</v>
-      </c>
-      <c r="C14">
-        <v>64</v>
-      </c>
-      <c r="D14" s="2">
-        <f t="shared" si="0"/>
-        <v>0.14780600461893764</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <v>85</v>
-      </c>
-      <c r="C15">
-        <v>8</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" si="0"/>
-        <v>9.4117647058823528E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>1039</v>
-      </c>
-      <c r="C16">
-        <v>171</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" si="0"/>
-        <v>0.1645813282001925</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17">
-        <v>608</v>
-      </c>
-      <c r="C17">
-        <v>97</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" si="0"/>
-        <v>0.15953947368421054</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18">
-        <v>326</v>
-      </c>
-      <c r="C18">
-        <v>32</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" si="0"/>
-        <v>9.815950920245399E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19">
-        <v>772</v>
-      </c>
-      <c r="C19">
-        <v>120</v>
-      </c>
-      <c r="D19" s="2">
-        <f t="shared" si="0"/>
-        <v>0.15544041450777202</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20">
-        <v>663</v>
-      </c>
-      <c r="C20">
-        <v>100</v>
-      </c>
-      <c r="D20" s="2">
-        <f t="shared" si="0"/>
-        <v>0.15082956259426847</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21">
-        <v>713</v>
-      </c>
-      <c r="C21">
-        <v>124</v>
-      </c>
-      <c r="D21" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17391304347826086</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22">
-        <v>684</v>
-      </c>
-      <c r="C22">
-        <v>104</v>
-      </c>
-      <c r="D22" s="2">
-        <f t="shared" si="0"/>
-        <v>0.15204678362573099</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23">
-        <v>601</v>
-      </c>
-      <c r="C23">
-        <v>102</v>
-      </c>
-      <c r="D23" s="2">
-        <f t="shared" si="0"/>
-        <v>0.16971713810316139</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24">
-        <v>749</v>
-      </c>
-      <c r="C24">
-        <v>145</v>
-      </c>
-      <c r="D24" s="2">
-        <f t="shared" si="0"/>
-        <v>0.19359145527369825</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25">
-        <v>396</v>
-      </c>
-      <c r="C25">
-        <v>55</v>
-      </c>
-      <c r="D25" s="2">
-        <f t="shared" si="0"/>
-        <v>0.1388888888888889</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26">
-        <v>631</v>
-      </c>
-      <c r="C26">
-        <v>76</v>
-      </c>
-      <c r="D26" s="2">
-        <f t="shared" si="0"/>
-        <v>0.12044374009508717</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28">
-        <v>239</v>
-      </c>
-      <c r="C28">
-        <v>32</v>
-      </c>
-      <c r="D28" s="2">
-        <f t="shared" si="0"/>
-        <v>0.13389121338912133</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29">
-        <v>321</v>
-      </c>
-      <c r="C29">
-        <v>49</v>
-      </c>
-      <c r="D29" s="2">
-        <f t="shared" si="0"/>
-        <v>0.15264797507788161</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30">
-        <v>525</v>
-      </c>
-      <c r="C30">
-        <v>98</v>
-      </c>
-      <c r="D30" s="2">
-        <f t="shared" si="0"/>
-        <v>0.18666666666666668</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31">
-        <v>526</v>
-      </c>
-      <c r="C31">
-        <v>67</v>
-      </c>
-      <c r="D31" s="2">
-        <f t="shared" si="0"/>
-        <v>0.12737642585551331</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32">
-        <v>431</v>
-      </c>
-      <c r="C32">
-        <v>57</v>
-      </c>
-      <c r="D32" s="2">
-        <f t="shared" si="0"/>
-        <v>0.13225058004640372</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33">
-        <v>819</v>
-      </c>
-      <c r="C33">
-        <v>147</v>
-      </c>
-      <c r="D33" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17948717948717949</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34">
-        <v>264</v>
-      </c>
-      <c r="C34">
-        <v>39</v>
-      </c>
-      <c r="D34" s="2">
-        <f t="shared" si="0"/>
-        <v>0.14772727272727273</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35">
-        <v>363</v>
-      </c>
-      <c r="C35">
-        <v>80</v>
-      </c>
-      <c r="D35" s="2">
-        <f t="shared" si="0"/>
-        <v>0.22038567493112948</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36">
-        <v>153</v>
-      </c>
-      <c r="C36">
-        <v>25</v>
-      </c>
-      <c r="D36" s="2">
-        <f t="shared" si="0"/>
-        <v>0.16339869281045752</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37">
-        <v>324</v>
-      </c>
-      <c r="C37">
-        <v>38</v>
-      </c>
-      <c r="D37" s="2">
-        <f t="shared" si="0"/>
-        <v>0.11728395061728394</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38">
-        <v>209</v>
-      </c>
-      <c r="C38">
-        <v>34</v>
-      </c>
-      <c r="D38" s="2">
-        <f t="shared" si="0"/>
-        <v>0.16267942583732056</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39">
-        <v>823</v>
-      </c>
-      <c r="C39">
-        <v>153</v>
-      </c>
-      <c r="D39" s="2">
-        <f t="shared" si="0"/>
-        <v>0.18590522478736329</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40">
-        <v>97</v>
-      </c>
-      <c r="C40">
-        <v>31</v>
-      </c>
-      <c r="D40" s="2">
-        <f t="shared" si="0"/>
-        <v>0.31958762886597936</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41">
-        <v>587</v>
-      </c>
-      <c r="C41">
-        <v>89</v>
-      </c>
-      <c r="D41" s="2">
-        <f t="shared" si="0"/>
-        <v>0.151618398637138</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42">
-        <v>652</v>
-      </c>
-      <c r="C42">
-        <v>87</v>
-      </c>
-      <c r="D42" s="2">
-        <f t="shared" si="0"/>
-        <v>0.1334355828220859</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43">
-        <v>271</v>
-      </c>
-      <c r="C43">
-        <v>24</v>
-      </c>
-      <c r="D43" s="2">
-        <f t="shared" si="0"/>
-        <v>8.8560885608856083E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44">
-        <v>413</v>
-      </c>
-      <c r="C44">
-        <v>46</v>
-      </c>
-      <c r="D44" s="2">
-        <f t="shared" si="0"/>
-        <v>0.11138014527845036</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45">
-        <v>758</v>
-      </c>
-      <c r="C45">
-        <v>115</v>
-      </c>
-      <c r="D45" s="2">
-        <f t="shared" si="0"/>
-        <v>0.15171503957783641</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46">
-        <v>414</v>
-      </c>
-      <c r="C46">
-        <v>63</v>
-      </c>
-      <c r="D46" s="2">
-        <f t="shared" si="0"/>
-        <v>0.15217391304347827</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47">
-        <v>579</v>
-      </c>
-      <c r="C47">
-        <v>97</v>
-      </c>
-      <c r="D47" s="2">
-        <f t="shared" si="0"/>
-        <v>0.16753022452504318</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48">
-        <v>233</v>
-      </c>
-      <c r="C48">
-        <v>27</v>
-      </c>
-      <c r="D48" s="2">
-        <f t="shared" si="0"/>
-        <v>0.11587982832618025</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49">
-        <v>365</v>
-      </c>
-      <c r="C49">
-        <v>48</v>
-      </c>
-      <c r="D49" s="2">
-        <f t="shared" si="0"/>
-        <v>0.13150684931506848</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50">
-        <v>492</v>
-      </c>
-      <c r="C50">
-        <v>88</v>
-      </c>
-      <c r="D50" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17886178861788618</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51">
-        <v>922</v>
-      </c>
-      <c r="C51">
-        <v>135</v>
-      </c>
-      <c r="D51" s="2">
-        <f t="shared" si="0"/>
-        <v>0.14642082429501085</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52">
-        <v>667</v>
-      </c>
-      <c r="C52">
-        <v>90</v>
-      </c>
-      <c r="D52" s="2">
-        <f t="shared" si="0"/>
-        <v>0.13493253373313344</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53">
-        <v>411</v>
-      </c>
-      <c r="C53">
-        <v>59</v>
-      </c>
-      <c r="D53" s="2">
-        <f t="shared" si="0"/>
-        <v>0.14355231143552311</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54">
-        <v>403</v>
-      </c>
-      <c r="C54">
-        <v>64</v>
-      </c>
-      <c r="D54" s="2">
-        <f t="shared" si="0"/>
-        <v>0.15880893300248139</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55">
-        <v>770</v>
-      </c>
-      <c r="C55">
-        <v>118</v>
-      </c>
-      <c r="D55" s="2">
-        <f t="shared" si="0"/>
-        <v>0.15324675324675324</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56">
-        <v>476</v>
-      </c>
-      <c r="C56">
-        <v>76</v>
-      </c>
-      <c r="D56" s="2">
-        <f t="shared" si="0"/>
-        <v>0.15966386554621848</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57">
-        <v>372</v>
-      </c>
-      <c r="C57">
-        <v>67</v>
-      </c>
-      <c r="D57" s="2">
-        <f t="shared" si="0"/>
-        <v>0.18010752688172044</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58">
-        <v>527</v>
-      </c>
-      <c r="C58">
-        <v>90</v>
-      </c>
-      <c r="D58" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17077798861480076</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59">
-        <v>662</v>
-      </c>
-      <c r="C59">
-        <v>95</v>
-      </c>
-      <c r="D59" s="2">
-        <f t="shared" si="0"/>
-        <v>0.14350453172205438</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60">
-        <v>230</v>
-      </c>
-      <c r="C60">
-        <v>18</v>
-      </c>
-      <c r="D60" s="2">
-        <f t="shared" si="0"/>
-        <v>7.8260869565217397E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61">
-        <v>343</v>
-      </c>
-      <c r="C61">
-        <v>49</v>
-      </c>
-      <c r="D61" s="2">
-        <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62">
-        <v>849</v>
-      </c>
-      <c r="C62">
-        <v>149</v>
-      </c>
-      <c r="D62" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17550058892815076</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" t="s">
-        <v>63</v>
-      </c>
-      <c r="B63">
-        <v>145</v>
-      </c>
-      <c r="C63">
-        <v>10</v>
-      </c>
-      <c r="D63" s="2">
-        <f t="shared" si="0"/>
-        <v>6.8965517241379309E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" t="s">
-        <v>64</v>
-      </c>
-      <c r="B64">
-        <v>391</v>
-      </c>
-      <c r="C64">
-        <v>61</v>
-      </c>
-      <c r="D64" s="2">
-        <f t="shared" si="0"/>
-        <v>0.15601023017902813</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" t="s">
-        <v>65</v>
-      </c>
-      <c r="B65">
-        <v>564</v>
-      </c>
-      <c r="C65">
-        <v>86</v>
-      </c>
-      <c r="D65" s="2">
-        <f t="shared" si="0"/>
-        <v>0.1524822695035461</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" t="s">
-        <v>66</v>
-      </c>
-      <c r="B66">
-        <v>425</v>
-      </c>
-      <c r="C66">
-        <v>74</v>
-      </c>
-      <c r="D66" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17411764705882352</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67">
-        <v>285</v>
-      </c>
-      <c r="C67">
-        <v>53</v>
-      </c>
-      <c r="D67" s="2">
-        <f t="shared" si="0"/>
-        <v>0.18596491228070175</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" t="s">
-        <v>68</v>
-      </c>
-      <c r="B68">
-        <v>297</v>
-      </c>
-      <c r="C68">
-        <v>72</v>
-      </c>
-      <c r="D68" s="2">
-        <f t="shared" ref="D68:D72" si="1">C68/B68</f>
-        <v>0.24242424242424243</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" t="s">
-        <v>69</v>
-      </c>
-      <c r="B69">
-        <v>467</v>
-      </c>
-      <c r="C69">
-        <v>63</v>
-      </c>
-      <c r="D69" s="2">
-        <f t="shared" si="1"/>
-        <v>0.13490364025695931</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70">
-        <v>226</v>
-      </c>
-      <c r="C70">
-        <v>32</v>
-      </c>
-      <c r="D70" s="2">
-        <f t="shared" si="1"/>
-        <v>0.1415929203539823</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" t="s">
-        <v>73</v>
-      </c>
-      <c r="B71">
-        <v>744</v>
-      </c>
-      <c r="C71">
-        <v>85</v>
-      </c>
-      <c r="D71" s="2">
-        <f t="shared" si="1"/>
-        <v>0.11424731182795698</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" t="s">
-        <v>74</v>
-      </c>
-      <c r="B72">
-        <v>772</v>
-      </c>
-      <c r="D72" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D72"/>
-  <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
-      <c r="A1" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3">
-        <v>159</v>
-      </c>
-      <c r="C3">
-        <v>47</v>
-      </c>
-      <c r="D3" s="2">
-        <f>C3/B3</f>
-        <v>0.29559748427672955</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4">
-        <v>188</v>
-      </c>
-      <c r="C4">
-        <v>17</v>
-      </c>
-      <c r="D4" s="2">
-        <f t="shared" ref="D4:D67" si="0">C4/B4</f>
-        <v>9.0425531914893623E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B5">
-        <v>163</v>
-      </c>
-      <c r="C5">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" si="0"/>
-        <v>3.6809815950920248E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6">
-        <v>192</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" si="0"/>
-        <v>5.208333333333333E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7">
-        <v>234</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="0"/>
-        <v>1.282051282051282E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8">
-        <v>554</v>
-      </c>
-      <c r="C8">
-        <v>35</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>6.3176895306859202E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9">
-        <v>161</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="0"/>
-        <v>4.9689440993788817E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10">
-        <v>265</v>
-      </c>
-      <c r="C10">
-        <v>41</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" si="0"/>
-        <v>0.15471698113207547</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>93</v>
-      </c>
-      <c r="B11">
-        <v>251</v>
-      </c>
-      <c r="C11">
-        <v>12</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="0"/>
-        <v>4.7808764940239043E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13">
-        <v>203</v>
-      </c>
-      <c r="C13">
-        <v>9</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" si="0"/>
-        <v>4.4334975369458129E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B14">
-        <v>154</v>
-      </c>
-      <c r="C14">
-        <v>19</v>
-      </c>
-      <c r="D14" s="2">
-        <f t="shared" si="0"/>
-        <v>0.12337662337662338</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>97</v>
-      </c>
-      <c r="B15">
-        <v>156</v>
-      </c>
-      <c r="C15">
-        <v>11</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" si="0"/>
-        <v>7.0512820512820512E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16">
-        <v>159</v>
-      </c>
-      <c r="C16">
-        <v>8</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" si="0"/>
-        <v>5.0314465408805034E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>99</v>
-      </c>
-      <c r="B17">
-        <v>196</v>
-      </c>
-      <c r="C17">
-        <v>29</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" si="0"/>
-        <v>0.14795918367346939</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>100</v>
-      </c>
-      <c r="B18">
-        <v>159</v>
-      </c>
-      <c r="C18">
-        <v>47</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" si="0"/>
-        <v>0.29559748427672955</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>101</v>
-      </c>
-      <c r="B19">
-        <v>188</v>
-      </c>
-      <c r="C19">
-        <v>20</v>
-      </c>
-      <c r="D19" s="2">
-        <f t="shared" si="0"/>
-        <v>0.10638297872340426</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>102</v>
-      </c>
-      <c r="B20">
-        <v>163</v>
-      </c>
-      <c r="C20">
-        <v>6</v>
-      </c>
-      <c r="D20" s="2">
-        <f t="shared" si="0"/>
-        <v>3.6809815950920248E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>103</v>
-      </c>
-      <c r="B21">
-        <v>308</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>104</v>
-      </c>
-      <c r="B22">
-        <v>188</v>
-      </c>
-      <c r="C22">
-        <v>10</v>
-      </c>
-      <c r="D22" s="2">
-        <f t="shared" si="0"/>
-        <v>5.3191489361702128E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>105</v>
-      </c>
-      <c r="B23">
-        <v>191</v>
-      </c>
-      <c r="C23">
-        <v>18</v>
-      </c>
-      <c r="D23" s="2">
-        <f t="shared" si="0"/>
-        <v>9.4240837696335081E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>106</v>
-      </c>
-      <c r="B24">
-        <v>157</v>
-      </c>
-      <c r="C24">
-        <v>30</v>
-      </c>
-      <c r="D24" s="2">
-        <f t="shared" si="0"/>
-        <v>0.19108280254777071</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>107</v>
-      </c>
-      <c r="B25">
-        <v>161</v>
-      </c>
-      <c r="C25">
-        <v>8</v>
-      </c>
-      <c r="D25" s="2">
-        <f t="shared" si="0"/>
-        <v>4.9689440993788817E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>108</v>
-      </c>
-      <c r="B26">
-        <v>167</v>
-      </c>
-      <c r="C26">
-        <v>20</v>
-      </c>
-      <c r="D26" s="2">
-        <f t="shared" si="0"/>
-        <v>0.11976047904191617</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>109</v>
-      </c>
-      <c r="B27">
-        <v>216</v>
-      </c>
-      <c r="C27">
-        <v>10</v>
-      </c>
-      <c r="D27" s="2">
-        <f t="shared" si="0"/>
-        <v>4.6296296296296294E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>110</v>
-      </c>
-      <c r="B28">
-        <v>144</v>
-      </c>
-      <c r="C28">
-        <v>11</v>
-      </c>
-      <c r="D28" s="2">
-        <f t="shared" si="0"/>
-        <v>7.6388888888888895E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>111</v>
-      </c>
-      <c r="B29">
-        <v>112</v>
-      </c>
-      <c r="C29">
-        <v>7</v>
-      </c>
-      <c r="D29" s="2">
-        <f t="shared" si="0"/>
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>112</v>
-      </c>
-      <c r="B30">
-        <v>175</v>
-      </c>
-      <c r="C30">
-        <v>8</v>
-      </c>
-      <c r="D30" s="2">
-        <f t="shared" si="0"/>
-        <v>4.5714285714285714E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>113</v>
-      </c>
-      <c r="B31">
-        <v>258</v>
-      </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
-      <c r="D31" s="2">
-        <f t="shared" si="0"/>
-        <v>7.7519379844961239E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>114</v>
-      </c>
-      <c r="B32">
-        <v>234</v>
-      </c>
-      <c r="C32">
-        <v>38</v>
-      </c>
-      <c r="D32" s="2">
-        <f t="shared" si="0"/>
-        <v>0.1623931623931624</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>115</v>
-      </c>
-      <c r="B33">
-        <v>141</v>
-      </c>
-      <c r="C33">
-        <v>7</v>
-      </c>
-      <c r="D33" s="2">
-        <f t="shared" si="0"/>
-        <v>4.9645390070921988E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>116</v>
-      </c>
-      <c r="B34">
-        <v>109</v>
-      </c>
-      <c r="C34">
-        <v>20</v>
-      </c>
-      <c r="D34" s="2">
-        <f t="shared" si="0"/>
-        <v>0.1834862385321101</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>117</v>
-      </c>
-      <c r="B35">
-        <v>153</v>
-      </c>
-      <c r="C35">
-        <v>7</v>
-      </c>
-      <c r="D35" s="2">
-        <f t="shared" si="0"/>
-        <v>4.5751633986928102E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>118</v>
-      </c>
-      <c r="B36">
-        <v>230</v>
-      </c>
-      <c r="C36">
-        <v>10</v>
-      </c>
-      <c r="D36" s="2">
-        <f t="shared" si="0"/>
-        <v>4.3478260869565216E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>119</v>
-      </c>
-      <c r="B37">
-        <v>322</v>
-      </c>
-      <c r="C37">
-        <v>39</v>
-      </c>
-      <c r="D37" s="2">
-        <f t="shared" si="0"/>
-        <v>0.12111801242236025</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>120</v>
-      </c>
-      <c r="B38">
-        <v>316</v>
-      </c>
-      <c r="C38">
-        <v>26</v>
-      </c>
-      <c r="D38" s="2">
-        <f t="shared" si="0"/>
-        <v>8.2278481012658222E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>121</v>
-      </c>
-      <c r="B39">
-        <v>233</v>
-      </c>
-      <c r="C39">
-        <v>4</v>
-      </c>
-      <c r="D39" s="2">
-        <f t="shared" si="0"/>
-        <v>1.7167381974248927E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>122</v>
-      </c>
-      <c r="B40">
-        <v>130</v>
-      </c>
-      <c r="C40">
-        <v>15</v>
-      </c>
-      <c r="D40" s="2">
-        <f t="shared" si="0"/>
-        <v>0.11538461538461539</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>123</v>
-      </c>
-      <c r="B41">
-        <v>178</v>
-      </c>
-      <c r="C41">
-        <v>6</v>
-      </c>
-      <c r="D41" s="2">
-        <f t="shared" si="0"/>
-        <v>3.3707865168539325E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>124</v>
-      </c>
-      <c r="B42">
-        <v>349</v>
-      </c>
-      <c r="C42">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2">
-        <f t="shared" si="0"/>
-        <v>2.5787965616045846E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="D43" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="D44" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="D45" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="D46" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="D47" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="D48" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="49" spans="4:4">
-      <c r="D49" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="50" spans="4:4">
-      <c r="D50" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="51" spans="4:4">
-      <c r="D51" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="52" spans="4:4">
-      <c r="D52" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="53" spans="4:4">
-      <c r="D53" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="54" spans="4:4">
-      <c r="D54" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="55" spans="4:4">
-      <c r="D55" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="56" spans="4:4">
-      <c r="D56" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="57" spans="4:4">
-      <c r="D57" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="58" spans="4:4">
-      <c r="D58" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="59" spans="4:4">
-      <c r="D59" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="60" spans="4:4">
-      <c r="D60" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="61" spans="4:4">
-      <c r="D61" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="62" spans="4:4">
-      <c r="D62" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="63" spans="4:4">
-      <c r="D63" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="64" spans="4:4">
-      <c r="D64" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="65" spans="4:4">
-      <c r="D65" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="66" spans="4:4">
-      <c r="D66" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="67" spans="4:4">
-      <c r="D67" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="68" spans="4:4">
-      <c r="D68" s="2" t="e">
-        <f t="shared" ref="D68:D72" si="1">C68/B68</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="69" spans="4:4">
-      <c r="D69" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="70" spans="4:4">
-      <c r="D70" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="71" spans="4:4">
-      <c r="D71" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="72" spans="4:4">
-      <c r="D72" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D72"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
@@ -3962,519 +1412,1956 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75">
-      <c r="A1" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="A1" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4">
       <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="D3" s="2">
         <f>C3/B3</f>
-        <v>0.4</v>
+        <v>0.29559748427672955</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>188</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D42" si="0">C4/B4</f>
-        <v>0.22222222222222221</v>
+        <f t="shared" ref="D4:D25" si="0">C4/B4</f>
+        <v>9.0425531914893623E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B5">
-        <v>13</v>
+        <v>234</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>7.6923076923076927E-2</v>
+        <v>1.282051282051282E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>554</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
+        <v>6.3176895306859202E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>161</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
+        <v>4.9689440993788817E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8">
+        <v>265</v>
+      </c>
+      <c r="C8">
+        <v>41</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.15471698113207547</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9">
+        <v>251</v>
+      </c>
+      <c r="C9">
+        <v>12</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>4.7808764940239043E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10">
+        <v>203</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>4.4334975369458129E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11">
+        <v>154</v>
+      </c>
+      <c r="C11">
+        <v>19</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.12337662337662338</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
         <v>90</v>
       </c>
+      <c r="B12">
+        <v>159</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>5.0314465408805034E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13">
+        <v>196</v>
+      </c>
+      <c r="C13">
+        <v>29</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.14795918367346939</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14">
+        <v>159</v>
+      </c>
+      <c r="C14">
+        <v>47</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.29559748427672955</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15">
+        <v>157</v>
+      </c>
+      <c r="C15">
+        <v>30</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>0.19108280254777071</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16">
+        <v>167</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.11976047904191617</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17">
+        <v>144</v>
+      </c>
+      <c r="C17">
+        <v>11</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>7.6388888888888895E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18">
+        <v>112</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19">
+        <v>175</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="0"/>
+        <v>4.5714285714285714E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20">
+        <v>258</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="0"/>
+        <v>7.7519379844961239E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21">
+        <v>234</v>
+      </c>
+      <c r="C21">
+        <v>38</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="0"/>
+        <v>0.1623931623931624</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22">
+        <v>141</v>
+      </c>
+      <c r="C22">
+        <v>7</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="0"/>
+        <v>4.9645390070921988E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23">
+        <v>109</v>
+      </c>
+      <c r="C23">
+        <v>20</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="0"/>
+        <v>0.1834862385321101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24">
+        <v>230</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="0"/>
+        <v>4.3478260869565216E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25">
+        <v>322</v>
+      </c>
+      <c r="C25">
+        <v>39</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="0"/>
+        <v>0.12111801242236025</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D68"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.75">
+      <c r="A1" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>400</v>
+      </c>
+      <c r="C3">
+        <v>37</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D64" si="0">C3/B3</f>
+        <v>9.2499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>206</v>
+      </c>
+      <c r="C4">
+        <v>26</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.12621359223300971</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>284</v>
+      </c>
+      <c r="C5">
+        <v>64</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.22535211267605634</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>460</v>
+      </c>
+      <c r="C6">
+        <v>111</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.24130434782608695</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>733</v>
+      </c>
+      <c r="C7">
+        <v>81</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.11050477489768076</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
       <c r="B8">
+        <v>373</v>
+      </c>
+      <c r="C8">
+        <v>58</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.15549597855227881</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>117</v>
+      </c>
+      <c r="C9">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.17948717948717949</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>490</v>
+      </c>
+      <c r="C10">
+        <v>76</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.15510204081632653</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>728</v>
+      </c>
+      <c r="C11">
+        <v>102</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.14010989010989011</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>433</v>
+      </c>
+      <c r="C12">
+        <v>64</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.14780600461893764</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>85</v>
+      </c>
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>9.4117647058823528E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>1039</v>
+      </c>
+      <c r="C14">
+        <v>171</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.1645813282001925</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>608</v>
+      </c>
+      <c r="C15">
+        <v>97</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>0.15953947368421054</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>326</v>
+      </c>
+      <c r="C16">
+        <v>32</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>9.815950920245399E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>772</v>
+      </c>
+      <c r="C17">
+        <v>120</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>0.15544041450777202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>663</v>
+      </c>
+      <c r="C18">
+        <v>100</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="0"/>
+        <v>0.15082956259426847</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>713</v>
+      </c>
+      <c r="C19">
+        <v>124</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="0"/>
+        <v>0.17391304347826086</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>684</v>
+      </c>
+      <c r="C20">
+        <v>104</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="0"/>
+        <v>0.15204678362573099</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>601</v>
+      </c>
+      <c r="C21">
+        <v>102</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="0"/>
+        <v>0.16971713810316139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>749</v>
+      </c>
+      <c r="C22">
+        <v>145</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.19359145527369825</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
         <v>23</v>
+      </c>
+      <c r="B23">
+        <v>396</v>
+      </c>
+      <c r="C23">
+        <v>55</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="0"/>
+        <v>0.1388888888888889</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>631</v>
+      </c>
+      <c r="C24">
+        <v>76</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="0"/>
+        <v>0.12044374009508717</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>239</v>
+      </c>
+      <c r="C25">
+        <v>32</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13389121338912133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>321</v>
+      </c>
+      <c r="C26">
+        <v>49</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="0"/>
+        <v>0.15264797507788161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>525</v>
+      </c>
+      <c r="C27">
+        <v>98</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="0"/>
+        <v>0.18666666666666668</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>526</v>
+      </c>
+      <c r="C28">
+        <v>67</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="0"/>
+        <v>0.12737642585551331</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>431</v>
+      </c>
+      <c r="C29">
+        <v>57</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13225058004640372</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>819</v>
+      </c>
+      <c r="C30">
+        <v>147</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="0"/>
+        <v>0.17948717948717949</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>264</v>
+      </c>
+      <c r="C31">
+        <v>39</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="0"/>
+        <v>0.14772727272727273</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>363</v>
+      </c>
+      <c r="C32">
+        <v>80</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="0"/>
+        <v>0.22038567493112948</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>153</v>
+      </c>
+      <c r="C33">
+        <v>25</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="0"/>
+        <v>0.16339869281045752</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>324</v>
+      </c>
+      <c r="C34">
+        <v>38</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="0"/>
+        <v>0.11728395061728394</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>209</v>
+      </c>
+      <c r="C35">
+        <v>34</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="0"/>
+        <v>0.16267942583732056</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>823</v>
+      </c>
+      <c r="C36">
+        <v>153</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" si="0"/>
+        <v>0.18590522478736329</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>97</v>
+      </c>
+      <c r="C37">
+        <v>31</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="0"/>
+        <v>0.31958762886597936</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>587</v>
+      </c>
+      <c r="C38">
+        <v>89</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" si="0"/>
+        <v>0.151618398637138</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>652</v>
+      </c>
+      <c r="C39">
+        <v>87</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" si="0"/>
+        <v>0.1334355828220859</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>271</v>
+      </c>
+      <c r="C40">
+        <v>24</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" si="0"/>
+        <v>8.8560885608856083E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>413</v>
+      </c>
+      <c r="C41">
+        <v>46</v>
+      </c>
+      <c r="D41" s="2">
+        <f t="shared" si="0"/>
+        <v>0.11138014527845036</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>758</v>
+      </c>
+      <c r="C42">
+        <v>115</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" si="0"/>
+        <v>0.15171503957783641</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>414</v>
+      </c>
+      <c r="C43">
+        <v>63</v>
+      </c>
+      <c r="D43" s="2">
+        <f t="shared" si="0"/>
+        <v>0.15217391304347827</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>579</v>
+      </c>
+      <c r="C44">
+        <v>97</v>
+      </c>
+      <c r="D44" s="2">
+        <f t="shared" si="0"/>
+        <v>0.16753022452504318</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>233</v>
+      </c>
+      <c r="C45">
+        <v>27</v>
+      </c>
+      <c r="D45" s="2">
+        <f t="shared" si="0"/>
+        <v>0.11587982832618025</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>365</v>
+      </c>
+      <c r="C46">
+        <v>48</v>
+      </c>
+      <c r="D46" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13150684931506848</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>492</v>
+      </c>
+      <c r="C47">
+        <v>88</v>
+      </c>
+      <c r="D47" s="2">
+        <f t="shared" si="0"/>
+        <v>0.17886178861788618</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>922</v>
+      </c>
+      <c r="C48">
+        <v>135</v>
+      </c>
+      <c r="D48" s="2">
+        <f t="shared" si="0"/>
+        <v>0.14642082429501085</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>667</v>
+      </c>
+      <c r="C49">
+        <v>90</v>
+      </c>
+      <c r="D49" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13493253373313344</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>411</v>
+      </c>
+      <c r="C50">
+        <v>59</v>
+      </c>
+      <c r="D50" s="2">
+        <f t="shared" si="0"/>
+        <v>0.14355231143552311</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51">
+        <v>403</v>
+      </c>
+      <c r="C51">
+        <v>64</v>
+      </c>
+      <c r="D51" s="2">
+        <f t="shared" si="0"/>
+        <v>0.15880893300248139</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <v>770</v>
+      </c>
+      <c r="C52">
+        <v>118</v>
+      </c>
+      <c r="D52" s="2">
+        <f t="shared" si="0"/>
+        <v>0.15324675324675324</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53">
+        <v>476</v>
+      </c>
+      <c r="C53">
+        <v>76</v>
+      </c>
+      <c r="D53" s="2">
+        <f t="shared" si="0"/>
+        <v>0.15966386554621848</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54">
+        <v>372</v>
+      </c>
+      <c r="C54">
+        <v>67</v>
+      </c>
+      <c r="D54" s="2">
+        <f t="shared" si="0"/>
+        <v>0.18010752688172044</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <v>527</v>
+      </c>
+      <c r="C55">
+        <v>90</v>
+      </c>
+      <c r="D55" s="2">
+        <f t="shared" si="0"/>
+        <v>0.17077798861480076</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <v>662</v>
+      </c>
+      <c r="C56">
+        <v>95</v>
+      </c>
+      <c r="D56" s="2">
+        <f t="shared" si="0"/>
+        <v>0.14350453172205438</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>230</v>
+      </c>
+      <c r="C57">
+        <v>18</v>
+      </c>
+      <c r="D57" s="2">
+        <f t="shared" si="0"/>
+        <v>7.8260869565217397E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58">
+        <v>343</v>
+      </c>
+      <c r="C58">
+        <v>49</v>
+      </c>
+      <c r="D58" s="2">
+        <f t="shared" si="0"/>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59">
+        <v>849</v>
+      </c>
+      <c r="C59">
+        <v>149</v>
+      </c>
+      <c r="D59" s="2">
+        <f t="shared" si="0"/>
+        <v>0.17550058892815076</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60">
+        <v>145</v>
+      </c>
+      <c r="C60">
+        <v>10</v>
+      </c>
+      <c r="D60" s="2">
+        <f t="shared" si="0"/>
+        <v>6.8965517241379309E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61">
+        <v>391</v>
+      </c>
+      <c r="C61">
+        <v>61</v>
+      </c>
+      <c r="D61" s="2">
+        <f t="shared" si="0"/>
+        <v>0.15601023017902813</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62">
+        <v>564</v>
+      </c>
+      <c r="C62">
+        <v>86</v>
+      </c>
+      <c r="D62" s="2">
+        <f t="shared" si="0"/>
+        <v>0.1524822695035461</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63">
+        <v>425</v>
+      </c>
+      <c r="C63">
+        <v>74</v>
+      </c>
+      <c r="D63" s="2">
+        <f t="shared" si="0"/>
+        <v>0.17411764705882352</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64">
+        <v>285</v>
+      </c>
+      <c r="C64">
+        <v>53</v>
+      </c>
+      <c r="D64" s="2">
+        <f t="shared" si="0"/>
+        <v>0.18596491228070175</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65">
+        <v>297</v>
+      </c>
+      <c r="C65">
+        <v>72</v>
+      </c>
+      <c r="D65" s="2">
+        <f t="shared" ref="D65:D68" si="1">C65/B65</f>
+        <v>0.24242424242424243</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66">
+        <v>467</v>
+      </c>
+      <c r="C66">
+        <v>63</v>
+      </c>
+      <c r="D66" s="2">
+        <f t="shared" si="1"/>
+        <v>0.13490364025695931</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67">
+        <v>226</v>
+      </c>
+      <c r="C67">
+        <v>32</v>
+      </c>
+      <c r="D67" s="2">
+        <f t="shared" si="1"/>
+        <v>0.1415929203539823</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68">
+        <v>744</v>
+      </c>
+      <c r="C68">
+        <v>85</v>
+      </c>
+      <c r="D68" s="2">
+        <f t="shared" si="1"/>
+        <v>0.11424731182795698</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18.75">
+      <c r="A1" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D64" si="0">C3/B3</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.38095238095238093</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>26</v>
+      </c>
+      <c r="C6">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>29</v>
+      </c>
+      <c r="C7">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.37931034482758619</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>16</v>
       </c>
       <c r="C8">
         <v>8</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>0.34782608695652173</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="B10">
+        <v>26</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" si="0"/>
-        <v>0.45454545454545453</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>93</v>
-      </c>
       <c r="B11">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C11">
+        <v>12</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.38709677419354838</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>23</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.52173913043478259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
         <v>3</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="0"/>
-        <v>0.27272727272727271</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13">
-        <v>7</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="0"/>
-        <v>9.0909090909090912E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.43396226415094341</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>0.29411764705882354</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="0"/>
-        <v>0.375</v>
+        <v>0.45714285714285713</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="0"/>
-        <v>0.36363636363636365</v>
+        <v>0.44827586206896552</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.34883720930232559</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="B20">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="0"/>
-        <v>7.6923076923076927E-2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="B21">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.37931034482758619</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="B22">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>0.5757575757575758</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="B23">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" si="0"/>
-        <v>0.42857142857142855</v>
+        <v>0.35714285714285715</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.51851851851851849</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>25</v>
       </c>
       <c r="B25">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>9</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.44444444444444442</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="B27">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" si="0"/>
-        <v>0.2857142857142857</v>
+        <v>0.36363636363636365</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="B28">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D28" s="2">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>0.35714285714285715</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="B29">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="B30">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="C30">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D30" s="2">
         <f t="shared" si="0"/>
-        <v>0.91666666666666663</v>
+        <v>0.40476190476190477</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="B31">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D31" s="2">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="B32">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C32">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D32" s="2">
         <f t="shared" si="0"/>
-        <v>0.36363636363636365</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="B33">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" s="2">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="B34">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C34">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D34" s="2">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.46153846153846156</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="B35">
         <v>11</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D35" s="2">
         <f t="shared" si="0"/>
-        <v>9.0909090909090912E-2</v>
+        <v>0.45454545454545453</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="B36">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D36" s="2">
         <f t="shared" si="0"/>
@@ -4483,183 +3370,483 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>119</v>
+        <v>37</v>
       </c>
       <c r="B37">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C37">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D37" s="2">
         <f t="shared" si="0"/>
-        <v>0.42857142857142855</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="B38">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D38" s="2">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="B39">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C39">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D39" s="2">
         <f t="shared" si="0"/>
-        <v>0.44444444444444442</v>
+        <v>0.41379310344827586</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="B40">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" s="2">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="B41">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D41" s="2">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.29411764705882354</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>17</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" si="0"/>
+        <v>0.42499999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>15</v>
+      </c>
+      <c r="C43">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>25</v>
+      </c>
+      <c r="C44">
+        <v>12</v>
+      </c>
+      <c r="D44" s="2">
+        <f t="shared" si="0"/>
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>14</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45" s="2">
+        <f t="shared" si="0"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>12</v>
+      </c>
+      <c r="C46">
+        <v>6</v>
+      </c>
+      <c r="D46" s="2">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>30</v>
+      </c>
+      <c r="C47">
+        <v>15</v>
+      </c>
+      <c r="D47" s="2">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>38</v>
+      </c>
+      <c r="C48">
+        <v>19</v>
+      </c>
+      <c r="D48" s="2">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49">
         <v>124</v>
       </c>
-      <c r="B42">
+      <c r="C49">
+        <v>13</v>
+      </c>
+      <c r="D49" s="2">
+        <f t="shared" si="0"/>
+        <v>0.10483870967741936</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>16</v>
+      </c>
+      <c r="C50">
+        <v>6</v>
+      </c>
+      <c r="D50" s="2">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51">
+        <v>16</v>
+      </c>
+      <c r="C51">
+        <v>7</v>
+      </c>
+      <c r="D51" s="2">
+        <f t="shared" si="0"/>
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>18</v>
+      </c>
+      <c r="D52" s="2">
+        <f t="shared" si="0"/>
+        <v>0.34615384615384615</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53">
+        <v>26</v>
+      </c>
+      <c r="C53">
+        <v>8</v>
+      </c>
+      <c r="D53" s="2">
+        <f t="shared" si="0"/>
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54">
+        <v>19</v>
+      </c>
+      <c r="C54">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2">
+        <f t="shared" si="0"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <v>28</v>
+      </c>
+      <c r="C55">
+        <v>11</v>
+      </c>
+      <c r="D55" s="2">
+        <f>C55/B55</f>
+        <v>0.39285714285714285</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <v>41</v>
+      </c>
+      <c r="C56">
         <v>14</v>
       </c>
-      <c r="C42">
+      <c r="D56" s="2">
+        <f t="shared" si="0"/>
+        <v>0.34146341463414637</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>8</v>
+      </c>
+      <c r="C57">
+        <v>4</v>
+      </c>
+      <c r="D57" s="2">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58">
+        <v>13</v>
+      </c>
+      <c r="C58">
+        <v>7</v>
+      </c>
+      <c r="D58" s="2">
+        <f t="shared" si="0"/>
+        <v>0.53846153846153844</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59">
+        <v>47</v>
+      </c>
+      <c r="C59">
+        <v>21</v>
+      </c>
+      <c r="D59" s="2">
+        <f t="shared" si="0"/>
+        <v>0.44680851063829785</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60">
+        <v>7</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="D60" s="2">
+        <f t="shared" si="0"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61">
+        <v>15</v>
+      </c>
+      <c r="C61">
+        <v>6</v>
+      </c>
+      <c r="D61" s="2">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62">
+        <v>23</v>
+      </c>
+      <c r="C62">
+        <v>12</v>
+      </c>
+      <c r="D62" s="2">
+        <f t="shared" si="0"/>
+        <v>0.52173913043478259</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63">
+        <v>27</v>
+      </c>
+      <c r="C63">
         <v>9</v>
       </c>
-      <c r="D42" s="2">
-        <f t="shared" si="0"/>
-        <v>0.6428571428571429</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="D43" s="2"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="D44" s="2"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="D45" s="2"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="D46" s="2"/>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="D47" s="2"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="D48" s="2"/>
-    </row>
-    <row r="49" spans="4:4">
-      <c r="D49" s="2"/>
-    </row>
-    <row r="50" spans="4:4">
-      <c r="D50" s="2"/>
-    </row>
-    <row r="51" spans="4:4">
-      <c r="D51" s="2"/>
-    </row>
-    <row r="52" spans="4:4">
-      <c r="D52" s="2"/>
-    </row>
-    <row r="53" spans="4:4">
-      <c r="D53" s="2"/>
-    </row>
-    <row r="54" spans="4:4">
-      <c r="D54" s="2"/>
-    </row>
-    <row r="55" spans="4:4">
-      <c r="D55" s="2"/>
-    </row>
-    <row r="56" spans="4:4">
-      <c r="D56" s="2"/>
-    </row>
-    <row r="57" spans="4:4">
-      <c r="D57" s="2"/>
-    </row>
-    <row r="58" spans="4:4">
-      <c r="D58" s="2"/>
-    </row>
-    <row r="59" spans="4:4">
-      <c r="D59" s="2"/>
-    </row>
-    <row r="60" spans="4:4">
-      <c r="D60" s="2"/>
-    </row>
-    <row r="61" spans="4:4">
-      <c r="D61" s="2"/>
-    </row>
-    <row r="62" spans="4:4">
-      <c r="D62" s="2"/>
-    </row>
-    <row r="63" spans="4:4">
-      <c r="D63" s="2"/>
-    </row>
-    <row r="64" spans="4:4">
-      <c r="D64" s="2"/>
-    </row>
-    <row r="65" spans="4:4">
-      <c r="D65" s="2"/>
-    </row>
-    <row r="66" spans="4:4">
-      <c r="D66" s="2"/>
-    </row>
-    <row r="67" spans="4:4">
-      <c r="D67" s="2"/>
-    </row>
-    <row r="68" spans="4:4">
-      <c r="D68" s="2"/>
-    </row>
-    <row r="69" spans="4:4">
-      <c r="D69" s="2"/>
-    </row>
-    <row r="70" spans="4:4">
-      <c r="D70" s="2"/>
-    </row>
-    <row r="71" spans="4:4">
-      <c r="D71" s="2"/>
-    </row>
-    <row r="72" spans="4:4">
-      <c r="D72" s="2"/>
+      <c r="D63" s="2">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64">
+        <v>12</v>
+      </c>
+      <c r="C64">
+        <v>8</v>
+      </c>
+      <c r="D64" s="2">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65">
+        <v>11</v>
+      </c>
+      <c r="C65">
+        <v>7</v>
+      </c>
+      <c r="D65" s="2">
+        <f t="shared" ref="D65:D68" si="1">C65/B65</f>
+        <v>0.63636363636363635</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66">
+        <v>18</v>
+      </c>
+      <c r="C66">
+        <v>8</v>
+      </c>
+      <c r="D66" s="2">
+        <f t="shared" si="1"/>
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67">
+        <v>14</v>
+      </c>
+      <c r="C67">
+        <v>5</v>
+      </c>
+      <c r="D67" s="2">
+        <f t="shared" si="1"/>
+        <v>0.35714285714285715</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68">
+        <v>54</v>
+      </c>
+      <c r="C68">
+        <v>11</v>
+      </c>
+      <c r="D68" s="2">
+        <f t="shared" si="1"/>
+        <v>0.20370370370370369</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4674,8 +3861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4698,36 +3885,36 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2">
         <v>9.2499999999999999E-2</v>
@@ -4756,7 +3943,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2">
         <v>0.12620000000000001</v>
@@ -4785,7 +3972,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2">
         <v>0.22539999999999999</v>
@@ -4814,7 +4001,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2">
         <v>0.24129999999999999</v>
@@ -4843,7 +4030,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2">
         <v>0.1105</v>
@@ -4872,7 +4059,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2">
         <v>0.1555</v>
@@ -4901,7 +4088,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2">
         <v>0.17949999999999999</v>
@@ -4930,7 +4117,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2">
         <v>0.15509999999999999</v>
@@ -4959,7 +4146,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2">
         <v>0.1401</v>
@@ -4988,7 +4175,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12" s="2">
         <v>0.14779999999999999</v>
@@ -5017,7 +4204,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2">
         <v>9.4100000000000003E-2</v>
@@ -5046,7 +4233,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2">
         <v>0.1646</v>
@@ -5075,7 +4262,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2">
         <v>0.1595</v>
@@ -5104,7 +4291,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2">
         <v>9.8199999999999996E-2</v>
@@ -5133,7 +4320,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2">
         <v>0.15540000000000001</v>
@@ -5162,7 +4349,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2">
         <v>0.15079999999999999</v>
@@ -5191,7 +4378,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2">
         <v>0.17380000000000001</v>
@@ -5220,7 +4407,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B20" s="2">
         <v>0.152</v>
@@ -5249,7 +4436,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B21" s="2">
         <v>0.16969999999999999</v>
@@ -5278,7 +4465,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2">
         <v>0.19359999999999999</v>
@@ -5307,7 +4494,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2">
         <v>0.1389</v>
@@ -5336,7 +4523,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B24" s="2">
         <v>0.12039999999999999</v>
@@ -5365,7 +4552,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B25" s="2">
         <v>0.13389999999999999</v>
@@ -5394,7 +4581,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B26" s="2">
         <v>0.15260000000000001</v>
@@ -5423,7 +4610,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B27" s="2">
         <v>0.1867</v>
@@ -5452,7 +4639,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B28" s="2">
         <v>0.12740000000000001</v>
@@ -5481,7 +4668,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B29" s="2">
         <v>0.1323</v>
@@ -5510,7 +4697,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B30" s="2">
         <v>0.17949999999999999</v>
@@ -5539,7 +4726,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B31" s="2">
         <v>0.1477</v>
@@ -5568,7 +4755,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B32" s="2">
         <v>0.22040000000000001</v>
@@ -5597,7 +4784,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B33" s="2">
         <v>0.16339999999999999</v>
@@ -5626,7 +4813,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B34" s="2">
         <v>0.1173</v>
@@ -5655,7 +4842,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B35" s="2">
         <v>0.16270000000000001</v>
@@ -5684,7 +4871,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B36" s="2">
         <v>0.18590000000000001</v>
@@ -5713,7 +4900,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B37" s="2">
         <v>0.1389</v>
@@ -5742,7 +4929,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B38" s="2">
         <v>0.15160000000000001</v>
@@ -5771,7 +4958,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B39" s="2">
         <v>0.13339999999999999</v>
@@ -5800,7 +4987,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B40" s="2">
         <v>8.8599999999999998E-2</v>
@@ -5829,7 +5016,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B41" s="2">
         <v>0.1114</v>
@@ -5858,7 +5045,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B42" s="2">
         <v>0.1517</v>
@@ -5887,7 +5074,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B43" s="2">
         <v>0.1522</v>
@@ -5916,7 +5103,7 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B44" s="2">
         <v>0.16750000000000001</v>
@@ -5945,7 +5132,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B45" s="2">
         <v>0.1159</v>
@@ -5974,7 +5161,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B46" s="2">
         <v>0.13150000000000001</v>
@@ -6003,7 +5190,7 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B47" s="2">
         <v>0.1789</v>
@@ -6032,7 +5219,7 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B48" s="2">
         <v>0.1464</v>
@@ -6061,7 +5248,7 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B49" s="2">
         <v>0.13489999999999999</v>
@@ -6090,7 +5277,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B50" s="2">
         <v>0.14360000000000001</v>
@@ -6119,7 +5306,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B51" s="2">
         <v>0.1588</v>
@@ -6148,7 +5335,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B52" s="2">
         <v>0.1532</v>
@@ -6177,7 +5364,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B53" s="2">
         <v>0.15970000000000001</v>
@@ -6206,7 +5393,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B54" s="2">
         <v>0.18010000000000001</v>
@@ -6235,7 +5422,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B55" s="2">
         <v>0.17080000000000001</v>
@@ -6264,7 +5451,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B56" s="2">
         <v>0.14349999999999999</v>
@@ -6293,7 +5480,7 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B57" s="2">
         <v>7.8299999999999995E-2</v>
@@ -6322,7 +5509,7 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B58" s="2">
         <v>0.1429</v>
@@ -6351,7 +5538,7 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B59" s="2">
         <v>0.17549999999999999</v>
@@ -6380,7 +5567,7 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B60" s="2">
         <v>6.9000000000000006E-2</v>
@@ -6409,7 +5596,7 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B61" s="2">
         <v>0.156</v>
@@ -6438,7 +5625,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B62" s="2">
         <v>0.1525</v>
@@ -6467,7 +5654,7 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B63" s="2">
         <v>0.1741</v>
@@ -6496,7 +5683,7 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B64" s="2">
         <v>0.186</v>
@@ -6525,7 +5712,7 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B65" s="2">
         <v>0.2424</v>
@@ -6554,7 +5741,7 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B66" s="2">
         <v>0.13489999999999999</v>
@@ -6583,7 +5770,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B67" s="2">
         <v>0.1416</v>
@@ -6612,7 +5799,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B68" s="2">
         <v>0.1142</v>
@@ -6649,7 +5836,7 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B70" s="2">
         <f>SUM(B3:B69)/68</f>
@@ -6697,8 +5884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6711,30 +5898,30 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>80</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B3" s="2">
         <v>0.29559999999999997</v>
@@ -6757,30 +5944,30 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="12">
+        <v>82</v>
+      </c>
+      <c r="B4" s="10">
         <v>9.0399999999999994E-2</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="10">
         <v>0.22220000000000001</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="10">
         <v>0.25</v>
       </c>
-      <c r="E4" s="12">
-        <v>0</v>
-      </c>
-      <c r="F4" s="12">
-        <v>0</v>
-      </c>
-      <c r="G4" s="12">
+      <c r="E4" s="10">
+        <v>0</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0</v>
+      </c>
+      <c r="G4" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B5" s="2">
         <v>1.2800000000000001E-2</v>
@@ -6803,7 +5990,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B6" s="2">
         <v>6.3200000000000006E-2</v>
@@ -6826,7 +6013,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B7" s="2">
         <v>4.9700000000000001E-2</v>
@@ -6849,7 +6036,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B8" s="2">
         <v>0.1547</v>
@@ -6872,7 +6059,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B9" s="2">
         <v>4.7800000000000002E-2</v>
@@ -6895,7 +6082,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B10" s="2">
         <v>4.4299999999999999E-2</v>
@@ -6918,7 +6105,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B11" s="2">
         <v>0.1234</v>
@@ -6941,7 +6128,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B12" s="2">
         <v>5.0299999999999997E-2</v>
@@ -6964,7 +6151,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B13" s="2">
         <v>0.14799999999999999</v>
@@ -6987,7 +6174,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B14" s="2">
         <v>0.29559999999999997</v>
@@ -7010,7 +6197,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B15" s="2">
         <v>0.19109999999999999</v>
@@ -7033,7 +6220,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B16" s="2">
         <v>0.1198</v>
@@ -7056,7 +6243,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B17" s="2">
         <v>7.6399999999999996E-2</v>
@@ -7079,7 +6266,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="B18" s="2">
         <v>6.25E-2</v>
@@ -7102,7 +6289,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B19" s="2">
         <v>4.5699999999999998E-2</v>
@@ -7125,7 +6312,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B20" s="2">
         <v>7.7999999999999996E-3</v>
@@ -7148,7 +6335,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="B21" s="2">
         <v>0.16239999999999999</v>
@@ -7171,7 +6358,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B22" s="2">
         <v>4.9599999999999998E-2</v>
@@ -7194,7 +6381,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B23" s="2">
         <v>0.1835</v>
@@ -7217,7 +6404,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="B24" s="2">
         <v>4.3499999999999997E-2</v>
@@ -7240,7 +6427,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="B25" s="2">
         <v>0.1211</v>
@@ -7271,7 +6458,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B27" s="2">
         <f t="shared" ref="B27:G27" si="0">SUM(B3:B26)/30</f>

--- a/Document/Results.xlsx
+++ b/Document/Results.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showObjects="none"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JUSTINC\Desktop\SumMe\Document\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="5385" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="5385" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SENTENCE COUNT(FIL)" sheetId="5" r:id="rId1"/>
@@ -14,9 +19,9 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId5"/>
     <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="108">
   <si>
     <t>Original</t>
   </si>
@@ -336,16 +341,28 @@
   </si>
   <si>
     <t>Rating</t>
+  </si>
+  <si>
+    <t>Average English Sentence Count:</t>
+  </si>
+  <si>
+    <t>Average English Word Count:</t>
+  </si>
+  <si>
+    <t>Average Filipino Word Count:</t>
+  </si>
+  <si>
+    <t>Average Filipino Sentence Count:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -428,7 +445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -444,6 +461,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -542,74 +562,6 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -663,7 +615,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FBFBFB"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -910,21 +862,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
@@ -932,7 +884,7 @@
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>69</v>
       </c>
@@ -940,7 +892,7 @@
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -951,7 +903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -966,7 +918,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>81</v>
       </c>
@@ -981,7 +933,7 @@
         <v>0.22222222222222221</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>82</v>
       </c>
@@ -996,7 +948,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -1011,7 +963,7 @@
         <v>0.34782608695652173</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>84</v>
       </c>
@@ -1026,7 +978,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>85</v>
       </c>
@@ -1041,7 +993,7 @@
         <v>0.45454545454545453</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -1056,7 +1008,7 @@
         <v>0.27272727272727271</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -1071,7 +1023,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -1086,7 +1038,7 @@
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>89</v>
       </c>
@@ -1101,7 +1053,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>90</v>
       </c>
@@ -1116,7 +1068,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>91</v>
       </c>
@@ -1131,7 +1083,7 @@
         <v>0.36363636363636365</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>92</v>
       </c>
@@ -1146,7 +1098,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>93</v>
       </c>
@@ -1161,7 +1113,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>94</v>
       </c>
@@ -1176,7 +1128,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>95</v>
       </c>
@@ -1191,7 +1143,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>96</v>
       </c>
@@ -1206,7 +1158,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>97</v>
       </c>
@@ -1221,7 +1173,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>98</v>
       </c>
@@ -1236,7 +1188,7 @@
         <v>0.36363636363636365</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>99</v>
       </c>
@@ -1251,7 +1203,7 @@
         <v>0.22222222222222221</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>100</v>
       </c>
@@ -1266,7 +1218,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>101</v>
       </c>
@@ -1281,7 +1233,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>102</v>
       </c>
@@ -1296,99 +1248,111 @@
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="2">
+        <f>SUM(D3:D25)/23</f>
+        <v>0.32182655613657501</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="4:4">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="4:4">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="4:4">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="4:4">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="4:4">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="4:4">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="4:4">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="4:4">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="4:4">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="4:4">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D42" s="2"/>
     </row>
-    <row r="43" spans="4:4">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="4:4">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="4:4">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="4:4">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="4:4">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="4:4">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D48" s="2"/>
     </row>
-    <row r="49" spans="4:4">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49" s="2"/>
     </row>
-    <row r="50" spans="4:4">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D50" s="2"/>
     </row>
-    <row r="51" spans="4:4">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D51" s="2"/>
     </row>
-    <row r="52" spans="4:4">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D52" s="2"/>
     </row>
-    <row r="53" spans="4:4">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D53" s="2"/>
     </row>
-    <row r="54" spans="4:4">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D54" s="2"/>
     </row>
-    <row r="55" spans="4:4">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D55" s="2"/>
     </row>
-    <row r="56" spans="4:4">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="4:4">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D57" s="2"/>
     </row>
-    <row r="58" spans="4:4">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D58" s="2"/>
     </row>
-    <row r="59" spans="4:4">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D59" s="2"/>
     </row>
-    <row r="60" spans="4:4">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D60" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A27:C27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1396,14 +1360,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
@@ -1411,7 +1375,7 @@
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>68</v>
       </c>
@@ -1419,7 +1383,7 @@
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1430,7 +1394,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -1445,7 +1409,7 @@
         <v>0.29559748427672955</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>81</v>
       </c>
@@ -1460,7 +1424,7 @@
         <v>9.0425531914893623E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>82</v>
       </c>
@@ -1475,7 +1439,7 @@
         <v>1.282051282051282E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -1490,7 +1454,7 @@
         <v>6.3176895306859202E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>84</v>
       </c>
@@ -1505,7 +1469,7 @@
         <v>4.9689440993788817E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>85</v>
       </c>
@@ -1520,7 +1484,7 @@
         <v>0.15471698113207547</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -1535,7 +1499,7 @@
         <v>4.7808764940239043E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -1550,7 +1514,7 @@
         <v>4.4334975369458129E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -1565,7 +1529,7 @@
         <v>0.12337662337662338</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>89</v>
       </c>
@@ -1580,7 +1544,7 @@
         <v>5.0314465408805034E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>90</v>
       </c>
@@ -1595,7 +1559,7 @@
         <v>0.14795918367346939</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>91</v>
       </c>
@@ -1610,7 +1574,7 @@
         <v>0.29559748427672955</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>92</v>
       </c>
@@ -1625,7 +1589,7 @@
         <v>0.19108280254777071</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>93</v>
       </c>
@@ -1640,7 +1604,7 @@
         <v>0.11976047904191617</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>94</v>
       </c>
@@ -1655,7 +1619,7 @@
         <v>7.6388888888888895E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>95</v>
       </c>
@@ -1670,7 +1634,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>96</v>
       </c>
@@ -1685,7 +1649,7 @@
         <v>4.5714285714285714E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>97</v>
       </c>
@@ -1700,7 +1664,7 @@
         <v>7.7519379844961239E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>98</v>
       </c>
@@ -1715,7 +1679,7 @@
         <v>0.1623931623931624</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>99</v>
       </c>
@@ -1730,7 +1694,7 @@
         <v>4.9645390070921988E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>100</v>
       </c>
@@ -1745,7 +1709,7 @@
         <v>0.1834862385321101</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>101</v>
       </c>
@@ -1760,7 +1724,7 @@
         <v>4.3478260869565216E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>102</v>
       </c>
@@ -1775,9 +1739,21 @@
         <v>0.12111801242236025</v>
       </c>
     </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="2">
+        <f>SUM(D3:D25)/23</f>
+        <v>0.10604946965024616</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A27:C27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1785,14 +1761,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
@@ -1800,7 +1776,7 @@
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>68</v>
       </c>
@@ -1808,7 +1784,7 @@
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1819,7 +1795,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1834,7 +1810,7 @@
         <v>9.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1849,7 +1825,7 @@
         <v>0.12621359223300971</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1864,7 +1840,7 @@
         <v>0.22535211267605634</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1879,7 +1855,7 @@
         <v>0.24130434782608695</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1894,7 +1870,7 @@
         <v>0.11050477489768076</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1909,7 +1885,7 @@
         <v>0.15549597855227881</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1924,7 +1900,7 @@
         <v>0.17948717948717949</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1939,7 +1915,7 @@
         <v>0.15510204081632653</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1954,7 +1930,7 @@
         <v>0.14010989010989011</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1969,7 +1945,7 @@
         <v>0.14780600461893764</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1984,7 +1960,7 @@
         <v>9.4117647058823528E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1999,7 +1975,7 @@
         <v>0.1645813282001925</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -2014,7 +1990,7 @@
         <v>0.15953947368421054</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2029,7 +2005,7 @@
         <v>9.815950920245399E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -2044,7 +2020,7 @@
         <v>0.15544041450777202</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -2059,7 +2035,7 @@
         <v>0.15082956259426847</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -2074,7 +2050,7 @@
         <v>0.17391304347826086</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -2089,7 +2065,7 @@
         <v>0.15204678362573099</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -2104,7 +2080,7 @@
         <v>0.16971713810316139</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -2119,7 +2095,7 @@
         <v>0.19359145527369825</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -2134,7 +2110,7 @@
         <v>0.1388888888888889</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -2149,7 +2125,7 @@
         <v>0.12044374009508717</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -2164,7 +2140,7 @@
         <v>0.13389121338912133</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -2179,7 +2155,7 @@
         <v>0.15264797507788161</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -2194,7 +2170,7 @@
         <v>0.18666666666666668</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -2209,7 +2185,7 @@
         <v>0.12737642585551331</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -2224,7 +2200,7 @@
         <v>0.13225058004640372</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -2239,7 +2215,7 @@
         <v>0.17948717948717949</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -2254,7 +2230,7 @@
         <v>0.14772727272727273</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -2269,7 +2245,7 @@
         <v>0.22038567493112948</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -2284,7 +2260,7 @@
         <v>0.16339869281045752</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -2299,7 +2275,7 @@
         <v>0.11728395061728394</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -2314,7 +2290,7 @@
         <v>0.16267942583732056</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -2329,7 +2305,7 @@
         <v>0.18590522478736329</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -2344,7 +2320,7 @@
         <v>0.31958762886597936</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -2359,7 +2335,7 @@
         <v>0.151618398637138</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -2374,7 +2350,7 @@
         <v>0.1334355828220859</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -2389,7 +2365,7 @@
         <v>8.8560885608856083E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -2404,7 +2380,7 @@
         <v>0.11138014527845036</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -2419,7 +2395,7 @@
         <v>0.15171503957783641</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -2434,7 +2410,7 @@
         <v>0.15217391304347827</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -2449,7 +2425,7 @@
         <v>0.16753022452504318</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -2464,7 +2440,7 @@
         <v>0.11587982832618025</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -2479,7 +2455,7 @@
         <v>0.13150684931506848</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -2494,7 +2470,7 @@
         <v>0.17886178861788618</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -2509,7 +2485,7 @@
         <v>0.14642082429501085</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -2524,7 +2500,7 @@
         <v>0.13493253373313344</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -2539,7 +2515,7 @@
         <v>0.14355231143552311</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -2554,7 +2530,7 @@
         <v>0.15880893300248139</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -2569,7 +2545,7 @@
         <v>0.15324675324675324</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -2584,7 +2560,7 @@
         <v>0.15966386554621848</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -2599,7 +2575,7 @@
         <v>0.18010752688172044</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -2614,7 +2590,7 @@
         <v>0.17077798861480076</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -2629,7 +2605,7 @@
         <v>0.14350453172205438</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -2644,7 +2620,7 @@
         <v>7.8260869565217397E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -2659,7 +2635,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -2674,7 +2650,7 @@
         <v>0.17550058892815076</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -2689,7 +2665,7 @@
         <v>6.8965517241379309E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -2704,7 +2680,7 @@
         <v>0.15601023017902813</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -2719,7 +2695,7 @@
         <v>0.1524822695035461</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -2734,7 +2710,7 @@
         <v>0.17411764705882352</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -2749,7 +2725,7 @@
         <v>0.18596491228070175</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -2764,7 +2740,7 @@
         <v>0.24242424242424243</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -2779,7 +2755,7 @@
         <v>0.13490364025695931</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -2794,7 +2770,7 @@
         <v>0.1415929203539823</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -2809,9 +2785,21 @@
         <v>0.11424731182795698</v>
       </c>
     </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="2">
+        <f>SUM(D3:D68)/66</f>
+        <v>0.15326421263236992</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A70:C70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2819,14 +2807,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
@@ -2835,7 +2823,7 @@
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75">
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>69</v>
       </c>
@@ -2843,7 +2831,7 @@
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2858,7 +2846,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2873,7 +2861,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2888,7 +2876,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2903,7 +2891,7 @@
         <v>0.38095238095238093</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2918,7 +2906,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2933,7 +2921,7 @@
         <v>0.37931034482758619</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2948,7 +2936,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2963,7 +2951,7 @@
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2978,7 +2966,7 @@
         <v>0.38461538461538464</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -2993,7 +2981,7 @@
         <v>0.38709677419354838</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -3008,7 +2996,7 @@
         <v>0.52173913043478259</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -3023,7 +3011,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -3038,7 +3026,7 @@
         <v>0.43396226415094341</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -3053,7 +3041,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -3068,7 +3056,7 @@
         <v>0.29411764705882354</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -3083,7 +3071,7 @@
         <v>0.45714285714285713</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -3098,7 +3086,7 @@
         <v>0.44827586206896552</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -3113,7 +3101,7 @@
         <v>0.34883720930232559</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -3128,7 +3116,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -3143,7 +3131,7 @@
         <v>0.37931034482758619</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -3158,7 +3146,7 @@
         <v>0.5757575757575758</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -3173,7 +3161,7 @@
         <v>0.35714285714285715</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -3188,7 +3176,7 @@
         <v>0.51851851851851849</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -3203,7 +3191,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -3218,7 +3206,7 @@
         <v>0.44444444444444442</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -3233,7 +3221,7 @@
         <v>0.36363636363636365</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -3248,7 +3236,7 @@
         <v>0.35714285714285715</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -3263,7 +3251,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -3278,7 +3266,7 @@
         <v>0.40476190476190477</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -3293,7 +3281,7 @@
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -3308,7 +3296,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -3323,7 +3311,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -3338,7 +3326,7 @@
         <v>0.46153846153846156</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -3353,7 +3341,7 @@
         <v>0.45454545454545453</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -3368,7 +3356,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -3383,7 +3371,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -3398,7 +3386,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -3413,7 +3401,7 @@
         <v>0.41379310344827586</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -3428,7 +3416,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -3443,7 +3431,7 @@
         <v>0.29411764705882354</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -3458,7 +3446,7 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -3473,7 +3461,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -3488,7 +3476,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -3503,7 +3491,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -3518,7 +3506,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -3533,7 +3521,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -3548,7 +3536,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -3563,7 +3551,7 @@
         <v>0.10483870967741936</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -3578,7 +3566,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -3593,7 +3581,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -3608,7 +3596,7 @@
         <v>0.34615384615384615</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -3623,7 +3611,7 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -3638,7 +3626,7 @@
         <v>0.47368421052631576</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -3653,7 +3641,7 @@
         <v>0.39285714285714285</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -3668,7 +3656,7 @@
         <v>0.34146341463414637</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -3683,7 +3671,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -3698,7 +3686,7 @@
         <v>0.53846153846153844</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -3713,7 +3701,7 @@
         <v>0.44680851063829785</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -3728,7 +3716,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -3743,7 +3731,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -3758,7 +3746,7 @@
         <v>0.52173913043478259</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -3773,7 +3761,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -3788,7 +3776,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -3803,7 +3791,7 @@
         <v>0.63636363636363635</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -3818,7 +3806,7 @@
         <v>0.44444444444444442</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -3833,7 +3821,7 @@
         <v>0.35714285714285715</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -3848,9 +3836,21 @@
         <v>0.20370370370370369</v>
       </c>
     </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="2">
+        <f>SUM(D3:D68)/66</f>
+        <v>0.42765935760918061</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A70:C70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3858,14 +3858,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="G77" sqref="G77"/>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:I70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" customWidth="1"/>
     <col min="2" max="2" width="7.5703125" customWidth="1"/>
@@ -3878,12 +3878,12 @@
     <col min="9" max="9" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>0.24990000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>0.1666</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>0.37490000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>0.24990000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -4173,7 +4173,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>4.1599999999999998E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v>4.1599999999999998E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>4.1599999999999998E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>0.20830000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -4376,7 +4376,7 @@
         <v>0.32140000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -4405,7 +4405,7 @@
         <v>0.28560000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -4434,7 +4434,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>0.35709999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -4492,7 +4492,7 @@
         <v>0.58330000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -4550,7 +4550,7 @@
         <v>8.3299999999999999E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -4579,7 +4579,7 @@
         <v>0.2142</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>0.49990000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -4637,7 +4637,7 @@
         <v>0.49990000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>0.14280000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -4724,7 +4724,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>8.3299999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -4782,7 +4782,7 @@
         <v>0.38879999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -4811,7 +4811,7 @@
         <v>0.20830000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>0.83330000000000004</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -4898,7 +4898,7 @@
         <v>0.33329999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -4956,7 +4956,7 @@
         <v>0.1666</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>0.37490000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -5014,7 +5014,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -5043,7 +5043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -5072,7 +5072,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -5130,7 +5130,7 @@
         <v>0.24990000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -5159,7 +5159,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -5217,7 +5217,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -5246,7 +5246,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -5333,7 +5333,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -5362,7 +5362,7 @@
         <v>0.29160000000000003</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -5391,7 +5391,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -5420,7 +5420,7 @@
         <v>0.2399</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -5478,7 +5478,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>7.1400000000000005E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -5536,7 +5536,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -5565,7 +5565,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -5623,7 +5623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -5652,7 +5652,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>0.56259999999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -5710,7 +5710,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -5739,7 +5739,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -5797,7 +5797,7 @@
         <v>8.3299999999999999E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -5826,7 +5826,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B69" s="2"/>
       <c r="D69" s="2"/>
       <c r="F69" s="2"/>
@@ -5834,7 +5834,7 @@
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>103</v>
       </c>
@@ -5881,14 +5881,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
@@ -5896,7 +5896,7 @@
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>79</v>
       </c>
@@ -5919,7 +5919,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -5942,7 +5942,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>81</v>
       </c>
@@ -5965,7 +5965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>82</v>
       </c>
@@ -5988,7 +5988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>84</v>
       </c>
@@ -6034,7 +6034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>85</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -6080,7 +6080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -6103,7 +6103,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -6126,7 +6126,7 @@
         <v>0.41660000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>89</v>
       </c>
@@ -6149,7 +6149,7 @@
         <v>0.33329999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>90</v>
       </c>
@@ -6172,7 +6172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>91</v>
       </c>
@@ -6195,7 +6195,7 @@
         <v>0.33329999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>92</v>
       </c>
@@ -6218,7 +6218,7 @@
         <v>0.1666</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>93</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>94</v>
       </c>
@@ -6264,7 +6264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>95</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>96</v>
       </c>
@@ -6310,7 +6310,7 @@
         <v>0.1666</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>97</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>98</v>
       </c>
@@ -6356,7 +6356,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>99</v>
       </c>
@@ -6379,7 +6379,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>100</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>101</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>102</v>
       </c>
@@ -6448,7 +6448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -6456,7 +6456,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>103</v>
       </c>

--- a/Document/Results.xlsx
+++ b/Document/Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr showObjects="none"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="5385" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="5385" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="SENTENCE COUNT(FIL)" sheetId="5" r:id="rId1"/>
@@ -263,9 +263,6 @@
     <t>ARA</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>Filename</t>
   </si>
   <si>
@@ -336,6 +333,9 @@
   </si>
   <si>
     <t>Filipino35</t>
+  </si>
+  <si>
+    <t>Rating</t>
   </si>
 </sst>
 </file>
@@ -910,7 +910,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -953,7 +953,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -968,7 +968,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4">
         <v>9</v>
@@ -983,7 +983,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B5">
         <v>7</v>
@@ -998,7 +998,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6">
         <v>23</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B7">
         <v>8</v>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B8">
         <v>11</v>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B9">
         <v>11</v>
@@ -1058,7 +1058,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B10">
         <v>7</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B11">
         <v>11</v>
@@ -1088,7 +1088,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B12">
         <v>6</v>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B13">
         <v>8</v>
@@ -1118,7 +1118,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B14">
         <v>11</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16">
         <v>9</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B17">
         <v>6</v>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B19">
         <v>12</v>
@@ -1208,7 +1208,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B20">
         <v>12</v>
@@ -1223,7 +1223,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B21">
         <v>11</v>
@@ -1238,7 +1238,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B22">
         <v>9</v>
@@ -1253,7 +1253,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B23">
         <v>5</v>
@@ -1268,7 +1268,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B24">
         <v>6</v>
@@ -1283,7 +1283,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B25">
         <v>14</v>
@@ -1400,7 +1400,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1427,12 +1427,12 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>2</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3">
         <v>159</v>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4">
         <v>188</v>
@@ -1462,7 +1462,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B5">
         <v>234</v>
@@ -1477,7 +1477,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6">
         <v>554</v>
@@ -1492,7 +1492,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B7">
         <v>161</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B8">
         <v>265</v>
@@ -1522,7 +1522,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B9">
         <v>251</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B10">
         <v>203</v>
@@ -1552,7 +1552,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B11">
         <v>154</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B12">
         <v>159</v>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B13">
         <v>196</v>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B14">
         <v>159</v>
@@ -1612,7 +1612,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B15">
         <v>157</v>
@@ -1627,7 +1627,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16">
         <v>167</v>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B17">
         <v>144</v>
@@ -1657,7 +1657,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B18">
         <v>112</v>
@@ -1672,7 +1672,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B19">
         <v>175</v>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B20">
         <v>258</v>
@@ -1702,7 +1702,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B21">
         <v>234</v>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B22">
         <v>141</v>
@@ -1732,7 +1732,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B23">
         <v>109</v>
@@ -1747,7 +1747,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B24">
         <v>230</v>
@@ -1762,7 +1762,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B25">
         <v>322</v>
@@ -1788,8 +1788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1816,7 +1816,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>2</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2822,8 +2822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2851,7 +2851,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>2</v>
+        <v>103</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -3861,8 +3861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3885,7 +3885,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>72</v>
@@ -5836,7 +5836,7 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="B70" s="2">
         <f>SUM(B3:B69)/68</f>
@@ -5884,8 +5884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5898,7 +5898,7 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>72</v>
@@ -5921,7 +5921,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2">
         <v>0.29559999999999997</v>
@@ -5944,7 +5944,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" s="10">
         <v>9.0399999999999994E-2</v>
@@ -5967,7 +5967,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B5" s="2">
         <v>1.2800000000000001E-2</v>
@@ -5990,7 +5990,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" s="2">
         <v>6.3200000000000006E-2</v>
@@ -6013,7 +6013,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B7" s="2">
         <v>4.9700000000000001E-2</v>
@@ -6036,7 +6036,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B8" s="2">
         <v>0.1547</v>
@@ -6059,7 +6059,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B9" s="2">
         <v>4.7800000000000002E-2</v>
@@ -6082,7 +6082,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B10" s="2">
         <v>4.4299999999999999E-2</v>
@@ -6105,7 +6105,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B11" s="2">
         <v>0.1234</v>
@@ -6128,7 +6128,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B12" s="2">
         <v>5.0299999999999997E-2</v>
@@ -6151,7 +6151,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B13" s="2">
         <v>0.14799999999999999</v>
@@ -6174,7 +6174,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B14" s="2">
         <v>0.29559999999999997</v>
@@ -6197,7 +6197,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B15" s="2">
         <v>0.19109999999999999</v>
@@ -6220,7 +6220,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="2">
         <v>0.1198</v>
@@ -6243,7 +6243,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B17" s="2">
         <v>7.6399999999999996E-2</v>
@@ -6266,7 +6266,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B18" s="2">
         <v>6.25E-2</v>
@@ -6289,7 +6289,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B19" s="2">
         <v>4.5699999999999998E-2</v>
@@ -6312,7 +6312,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B20" s="2">
         <v>7.7999999999999996E-3</v>
@@ -6335,7 +6335,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B21" s="2">
         <v>0.16239999999999999</v>
@@ -6358,7 +6358,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B22" s="2">
         <v>4.9599999999999998E-2</v>
@@ -6381,7 +6381,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B23" s="2">
         <v>0.1835</v>
@@ -6404,7 +6404,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B24" s="2">
         <v>4.3499999999999997E-2</v>
@@ -6427,7 +6427,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B25" s="2">
         <v>0.1211</v>
@@ -6457,8 +6457,8 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" t="s">
-        <v>79</v>
+      <c r="A27" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="B27" s="2">
         <f t="shared" ref="B27:G27" si="0">SUM(B3:B26)/30</f>
